--- a/biology/Zoologie/Afrixalus_equatorialis/Afrixalus_equatorialis.xlsx
+++ b/biology/Zoologie/Afrixalus_equatorialis/Afrixalus_equatorialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrixalus equatorialis est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrixalus equatorialis est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la partie centrale du bassin du Congo en République démocratique du Congo et dinas le Sud du Cameroun. Elle est probablement présente en République du Congo[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la partie centrale du bassin du Congo en République démocratique du Congo et dinas le Sud du Cameroun. Elle est probablement présente en République du Congo,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Laurent, 1941 : Les Megalixalus (Batraciens) du Musée du Congo. Revue de Zoologie et de Botanique Africaines. Tervuren, vol. 35, p. 119-132.</t>
         </is>
